--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED082C0-0334-41B8-B979-80C7C9DEF914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FDB02-E657-480F-B8F1-EE8125202C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="2928" windowWidth="35280" windowHeight="13512" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="35280" windowHeight="13512" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageInsurantData</t>
   </si>
 </sst>
 </file>
@@ -391,14 +394,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -419,6 +422,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FDB02-E657-480F-B8F1-EE8125202C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85D740-F2E8-4B44-9300-094F34BA2EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="35280" windowHeight="13512" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="960" yWindow="852" windowWidth="37068" windowHeight="15732" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageInsurantData</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageProductData</t>
+  </si>
+  <si>
+    <t>Choose Platinum</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageSendQuote</t>
+  </si>
+  <si>
+    <t>Send Quote - Button Main Page</t>
   </si>
 </sst>
 </file>
@@ -75,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,9 +415,13 @@
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +431,20 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -424,6 +453,18 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85D740-F2E8-4B44-9300-094F34BA2EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F6C86-705E-4F05-9969-355C0643E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="852" windowWidth="37068" windowHeight="15732" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="10320" yWindow="2316" windowWidth="29856" windowHeight="12480" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,25 @@
     <t>dlgAutomobileInsurance</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageVehicleData</t>
-  </si>
-  <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageInsurantData</t>
-  </si>
-  <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageProductData</t>
-  </si>
-  <si>
     <t>Choose Platinum</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPageSendQuote</t>
-  </si>
-  <si>
     <t>Send Quote - Button Main Page</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPageInsurantData</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPageProductData</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPageSendQuote</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,25 +446,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F6C86-705E-4F05-9969-355C0643E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70724D-9113-4C20-BAE7-E482A8C1AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2316" windowWidth="29856" windowHeight="12480" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3132" yWindow="3096" windowWidth="37836" windowHeight="11364" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPageSendQuote</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields_FillMake</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
   </si>
 </sst>
 </file>
@@ -404,21 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.77734375" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -467,6 +479,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70724D-9113-4C20-BAE7-E482A8C1AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9039DC-A326-44C1-AC1E-D28D91918146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="3096" windowWidth="37836" windowHeight="11364" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="32112" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>Insurant Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Button Next from Page VehicleData</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +502,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9039DC-A326-44C1-AC1E-D28D91918146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA7FB8-1DC4-412F-B67A-1EA28770D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="32112" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3072" yWindow="1560" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Button Next from Page VehicleData</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for hints regarding mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -425,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="73.77734375" customWidth="1"/>
     <col min="4" max="4" width="71.5546875" bestFit="1" customWidth="1"/>
@@ -504,12 +510,20 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA7FB8-1DC4-412F-B67A-1EA28770D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5100653-2CE9-4168-86B8-43F9EFE3ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1560" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="2304" yWindow="1560" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Vehicle Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_EnterNumericValuesBelowRange</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list value ranges</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_EnterNumericValuesAboveRange</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint manufacturing date in the future</t>
   </si>
 </sst>
 </file>
@@ -431,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,12 +458,13 @@
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="73.77734375" customWidth="1"/>
     <col min="4" max="4" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +486,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -494,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -508,15 +527,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5100653-2CE9-4168-86B8-43F9EFE3ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2794F4-43BD-44D7-92F3-8EB5F27ADF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1560" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Vehicle Page check error hint manufacturing date in the future</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>Insurant Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>Insurant Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Insurant Page check error hint formatting Part 2</t>
   </si>
 </sst>
 </file>
@@ -446,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +477,7 @@
     <col min="3" max="3" width="73.77734375" customWidth="1"/>
     <col min="4" max="4" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -564,6 +582,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2794F4-43BD-44D7-92F3-8EB5F27ADF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C765FDFF-5E8E-4C08-973E-B2F733EA2466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1584" yWindow="3636" windowWidth="39024" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>Insurant Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>Product Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Product Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>Product Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>Goto product data page</t>
+  </si>
+  <si>
+    <t>Product Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Product Page check for filled mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;RESOLVE DialogRecord_Automobile_DefaultFillProductPage&gt;</t>
+  </si>
+  <si>
+    <t>Goto price option page</t>
   </si>
 </sst>
 </file>
@@ -464,25 +500,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="73.77734375" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="71.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +544,11 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,16 +562,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -545,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -558,20 +601,20 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -582,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -595,14 +638,54 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C765FDFF-5E8E-4C08-973E-B2F733EA2466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DCD67-6C8C-4204-8825-B0DA5FF27DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="3636" windowWidth="39024" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="2784" yWindow="3084" windowWidth="34512" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -123,18 +123,6 @@
     <t>Product Page check for hints regarding mandatory fields</t>
   </si>
   <si>
-    <t>102_AutomobileInsurance_004_ProductData_002_EnterValuesInWrongFormat Part 2</t>
-  </si>
-  <si>
-    <t>Product Page check error hint formatting Part 2</t>
-  </si>
-  <si>
-    <t>102_AutomobileInsurance_004_ProductData_002_EnterValuesInWrongFormat</t>
-  </si>
-  <si>
-    <t>Product Page check error hint formatting</t>
-  </si>
-  <si>
     <t>Goto product data page</t>
   </si>
   <si>
@@ -148,6 +136,33 @@
   </si>
   <si>
     <t>Goto price option page</t>
+  </si>
+  <si>
+    <t>Product Page check for hint date with invalid format</t>
+  </si>
+  <si>
+    <t>Product Page check for hint date with invalid value in past</t>
+  </si>
+  <si>
+    <t>Product Page enter date with invalid format</t>
+  </si>
+  <si>
+    <t>Product Page enter date with invalid value in past</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_005_PriceOption_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_005_PriceOption_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>Price option page check for open mandatory field</t>
+  </si>
+  <si>
+    <t>Price option page check for filled mandatory field</t>
+  </si>
+  <si>
+    <t>Select Ultimate</t>
   </si>
 </sst>
 </file>
@@ -500,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A11" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +527,7 @@
     <col min="2" max="2" width="53.33203125" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" customWidth="1"/>
     <col min="4" max="4" width="71.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.88671875" bestFit="1" customWidth="1"/>
@@ -562,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -653,16 +668,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -670,22 +685,65 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DCD67-6C8C-4204-8825-B0DA5FF27DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DDCC8-72F5-4B2B-845A-7176B44C1108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="3084" windowWidth="34512" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3060" yWindow="2724" windowWidth="31740" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Select Ultimate</t>
+  </si>
+  <si>
+    <t>Price Option Page check for hints regarding mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,6 +748,9 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Data/Processes/proAutomobileInsurance.xlsx
+++ b/Data/Processes/proAutomobileInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DDCC8-72F5-4B2B-845A-7176B44C1108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149F3DD-0106-4125-83CC-EF8E608388C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2724" windowWidth="31740" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3720" yWindow="780" windowWidth="36948" windowHeight="15672" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -166,6 +166,36 @@
   </si>
   <si>
     <t>Price Option Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Choose Silver</t>
+  </si>
+  <si>
+    <t>Choose Gold</t>
+  </si>
+  <si>
+    <t>Send Quote Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>Send Quote Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>Send Quote Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Send Quote page check for open mandatory field</t>
   </si>
 </sst>
 </file>
@@ -518,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" customWidth="1"/>
     <col min="4" max="4" width="71.77734375" customWidth="1"/>
     <col min="5" max="5" width="43.77734375" bestFit="1" customWidth="1"/>
@@ -535,9 +565,11 @@
     <col min="7" max="7" width="71.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +597,14 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -592,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -606,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -632,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -643,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -666,7 +704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -683,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -706,7 +744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -732,7 +770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -750,6 +788,64 @@
       </c>
       <c r="F10" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
